--- a/[TEC]/Hamming.xlsx
+++ b/[TEC]/Hamming.xlsx
@@ -11,23 +11,20 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="M_de_fórmula">Hoja1!$B$3</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>TRAZA A CODIFICAR:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Dig</t>
   </si>
   <si>
     <t>Bin</t>
-  </si>
-  <si>
-    <t>FÓRMULA:</t>
   </si>
   <si>
     <r>
@@ -57,12 +54,130 @@
       <t xml:space="preserve"> &gt;= m + r + 1</t>
     </r>
   </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>m + r + 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TRAZA A CODIFICAR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>Þ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FÓRMULA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>ß</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>Ü</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> LARGO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <t>POSICIÓN ►</t>
+  </si>
+  <si>
+    <t>POTENCIAS ►</t>
+  </si>
+  <si>
+    <t>MENSAJE ►</t>
+  </si>
+  <si>
+    <t>TRAZA ►</t>
+  </si>
+  <si>
+    <t>INTRODUCE ERROR ►</t>
+  </si>
+  <si>
+    <t>DECODIFICACIÓN ►</t>
+  </si>
+  <si>
+    <t>SUMA DE LOS PESOS ►</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RESPUESTA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>ß</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +229,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006450"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +340,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -170,11 +370,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC00000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,7 +473,67 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -224,6 +541,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF006450"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -519,225 +841,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="12" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13">
+        <v>5</v>
+      </c>
+      <c r="B1" s="21" t="str">
+        <f>DEC2BIN(C1)</f>
+        <v>10111</v>
+      </c>
+      <c r="C1" s="13">
         <v>23</v>
       </c>
-      <c r="C1" s="13" t="str">
-        <f>DEC2BIN(B1)</f>
-        <v>10111</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="12"/>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>DEC2BIN(G2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <f>LEN(B1)</f>
+        <v>5</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H10" si="0">DEC2BIN(G3)</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2">
-        <v>4</v>
-      </c>
-      <c r="M1" s="2">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <f>DEC2BIN(I2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="I3" s="6">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J10" si="0">DEC2BIN(I3)</f>
-        <v>10</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="7">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="str">
+      <c r="H4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="I5" s="8">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="D5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="I6" s="2">
+      <c r="I5" s="4"/>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="str">
+        <f t="shared" ref="A6:A8" si="1">IF(D6&gt;=C6,"CUMPLE LA CONDICIÓN ►","")</f>
+        <v/>
+      </c>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <f>M_de_fórmula+B6+1</f>
+        <v>7</v>
+      </c>
+      <c r="D6" s="17">
+        <f>2^B6</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="H6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="I7" s="2">
+      <c r="I6" s="4"/>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18">
+        <f>M_de_fórmula+B7+1</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" ref="D7:D9" si="2">2^B7</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
         <v>6</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="H7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="9">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="I8" s="2">
+      <c r="I7" s="4"/>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B8" s="17">
+        <v>3</v>
+      </c>
+      <c r="C8" s="18">
+        <f>M_de_fórmula+B8+1</f>
+        <v>9</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
         <v>7</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="I9" s="10">
+      <c r="I8" s="4"/>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="str">
+        <f>IF(D9&gt;=C9,"CUMPLE LA CONDICIÓN ►","")</f>
+        <v>CUMPLE LA CONDICIÓN ►</v>
+      </c>
+      <c r="B9" s="17">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18">
+        <f>M_de_fórmula+B9+1</f>
+        <v>10</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="10">
         <v>8</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="K9" s="11">
-        <v>1</v>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
       </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="I10" s="2">
+    </row>
+    <row r="10" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="str">
+        <f t="shared" ref="A10" si="3">IF(D10&gt;=C10,"CUMPLE LA CONDICIÓN ►","")</f>
+        <v>CUMPLE LA CONDICIÓN ►</v>
+      </c>
+      <c r="B10" s="17">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18">
+        <f>M_de_fórmula+B10+1</f>
+        <v>11</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" ref="D10" si="4">2^B10</f>
+        <v>32</v>
+      </c>
+      <c r="G10" s="2">
         <v>9</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1001</v>
       </c>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26">
+        <v>2</v>
+      </c>
+      <c r="F13" s="26">
+        <v>3</v>
+      </c>
+      <c r="G13" s="26">
+        <v>4</v>
+      </c>
+      <c r="H13" s="26">
+        <v>5</v>
+      </c>
+      <c r="I13" s="26">
+        <v>6</v>
+      </c>
+      <c r="J13" s="26">
+        <v>7</v>
+      </c>
+      <c r="K13" s="26">
+        <v>8</v>
+      </c>
+      <c r="L13" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="25">
+        <f>IF(ISEVEN(F14+H14+J14+L14),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="25">
+        <f>IF(ISEVEN(F14+I14+J14),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="24">
+        <f>F15</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="25">
+        <f>IF(ISEVEN(H14+I14+J14),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" ref="H14:L14" si="5">H15</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="25">
+        <f>IF(ISEVEN(L14),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
+        <v>1</v>
+      </c>
+      <c r="J15" s="28">
+        <v>1</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="24">
+        <f>D14+D15</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" ref="E16:L16" si="6">E14+E15</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="24">
+        <f>F15</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" ref="H16:L16" si="7">H15</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="24">
+        <f>D16</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
+        <f t="shared" ref="E19:L19" si="8">E16</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
+        <v>0</v>
+      </c>
+      <c r="J19" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="62.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="32" t="b">
+        <f>IF(ISEVEN(D19+F19+H19+J19+L19),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="32" t="b">
+        <f>IF(ISEVEN(E19+F19+I19+J19),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="32" t="b">
+        <f>IF(ISEVEN(G19+H19+I19+J19),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="32" t="b">
+        <f>IF(ISEVEN(K19+L19),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="33">
+        <f>IF(D20=TRUE,0,D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="33">
+        <f t="shared" ref="E21:L21" si="9">IF(E20=TRUE,0,E13)</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34">
+        <f>SUM(D21:L21)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
